--- a/data/trans_orig/P2A_fisi_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC49DB24-F40A-4124-9303-ECF6BF80B504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A37CC3F-C4F0-41A7-9866-67EFA2E863D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{948F86F0-C743-4741-B44A-DC43E3E61DA8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{472049F6-CD51-4991-BF31-E4847CFC6C28}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="480">
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>98,45%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>96,83%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>97,7%</t>
   </si>
   <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,916 +197,952 @@
     <t>4,19%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
     <t>5,55%</t>
   </si>
   <si>
+    <t>4,83%</t>
+  </si>
+  <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>7,87%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>6,24%</t>
@@ -1115,370 +1151,388 @@
     <t>5,65%</t>
   </si>
   <si>
-    <t>6,85%</t>
+    <t>6,78%</t>
   </si>
   <si>
     <t>94,45%</t>
   </si>
   <si>
+    <t>95,17%</t>
+  </si>
+  <si>
     <t>93,1%</t>
   </si>
   <si>
-    <t>92,13%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>93,15%</t>
+    <t>93,22%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>10,99%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>93,36%</t>
   </si>
   <si>
-    <t>89,01%</t>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>93,56%</t>
   </si>
   <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>2,14%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>8,86%</t>
   </si>
   <si>
     <t>90,25%</t>
   </si>
   <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>96,5%</t>
   </si>
   <si>
-    <t>97,86%</t>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>93,61%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>91,14%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>3,8%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>95,06%</t>
   </si>
   <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>96,2%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
+    <t>7,53%</t>
   </si>
   <si>
     <t>9,47%</t>
   </si>
   <si>
-    <t>11,1%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>90,31%</t>
   </si>
   <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>92,47%</t>
   </si>
   <si>
     <t>90,53%</t>
   </si>
   <si>
-    <t>88,9%</t>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>80,83%</t>
   </si>
   <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>73,53%</t>
   </si>
   <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>17,88%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
   </si>
   <si>
     <t>88,57%</t>
   </si>
   <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
   </si>
   <si>
     <t>86,08%</t>
   </si>
   <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>82,12%</t>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B69E712-5183-4133-8E6A-00553C5E15A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF8149F-68EF-4A92-9FC8-FC27C69DAEB4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2342,10 +2396,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -2354,13 +2408,13 @@
         <v>58953</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2429,13 @@
         <v>611904</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>629</v>
@@ -2390,13 +2444,13 @@
         <v>657555</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>1219</v>
@@ -2405,13 +2459,13 @@
         <v>1269459</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,7 +2521,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2479,13 +2533,13 @@
         <v>27733</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -2494,13 +2548,13 @@
         <v>43296</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -2509,13 +2563,13 @@
         <v>71029</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2584,13 @@
         <v>491414</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>461</v>
@@ -2545,13 +2599,13 @@
         <v>472346</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>919</v>
@@ -2560,13 +2614,13 @@
         <v>963760</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,7 +2676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2634,13 +2688,13 @@
         <v>35166</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -2649,13 +2703,13 @@
         <v>32181</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -2664,13 +2718,13 @@
         <v>67347</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2739,13 @@
         <v>351544</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>367</v>
@@ -2700,13 +2754,13 @@
         <v>371805</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>724</v>
@@ -2715,13 +2769,13 @@
         <v>723349</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2831,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2789,13 +2843,13 @@
         <v>49636</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -2804,13 +2858,13 @@
         <v>72524</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -2819,13 +2873,13 @@
         <v>122160</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2894,13 @@
         <v>452830</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>591</v>
@@ -2855,13 +2909,13 @@
         <v>604318</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1061</v>
@@ -2870,13 +2924,13 @@
         <v>1057148</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2998,13 @@
         <v>163611</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>198</v>
@@ -2959,13 +3013,13 @@
         <v>209674</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>360</v>
@@ -2974,13 +3028,13 @@
         <v>373284</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,16 +3046,16 @@
         <v>3052</v>
       </c>
       <c r="D23" s="7">
-        <v>3112932</v>
+        <v>3112933</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3099</v>
@@ -3010,28 +3064,28 @@
         <v>3169524</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6151</v>
       </c>
       <c r="N23" s="7">
-        <v>6282457</v>
+        <v>6282456</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,7 +3097,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3073,7 +3127,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3087,7 +3141,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3109,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A34693E-6B66-4904-80CA-595974D70669}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A224FFBC-902F-47BC-A150-8AD47BDF3F58}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3126,7 +3180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3233,13 +3287,13 @@
         <v>11485</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -3248,13 +3302,13 @@
         <v>17935</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3263,13 +3317,13 @@
         <v>29420</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3338,13 @@
         <v>442661</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>403</v>
@@ -3299,13 +3353,13 @@
         <v>412295</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>838</v>
@@ -3314,13 +3368,13 @@
         <v>854956</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,10 +3460,10 @@
         <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -3418,13 +3472,13 @@
         <v>58535</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3493,13 @@
         <v>652987</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>549</v>
@@ -3454,13 +3508,13 @@
         <v>585820</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>1183</v>
@@ -3469,13 +3523,13 @@
         <v>1238807</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3597,13 @@
         <v>36609</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3558,13 +3612,13 @@
         <v>52499</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -3573,13 +3627,13 @@
         <v>89108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3648,13 @@
         <v>645254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -3609,13 +3663,13 @@
         <v>658351</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1235</v>
@@ -3624,13 +3678,13 @@
         <v>1303604</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,7 +3740,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3698,13 +3752,13 @@
         <v>40021</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -3713,13 +3767,13 @@
         <v>60475</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>89</v>
@@ -3728,13 +3782,13 @@
         <v>100495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3803,13 @@
         <v>574596</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>487</v>
@@ -3764,13 +3818,13 @@
         <v>555724</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>998</v>
@@ -3779,13 +3833,13 @@
         <v>1130321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3895,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3853,13 +3907,13 @@
         <v>46962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -3868,13 +3922,13 @@
         <v>51641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -3883,13 +3937,13 @@
         <v>98603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3958,13 @@
         <v>382467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>359</v>
@@ -3919,13 +3973,13 @@
         <v>396159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>707</v>
@@ -3934,13 +3988,13 @@
         <v>778626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +4050,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4008,13 +4062,13 @@
         <v>81328</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>108</v>
@@ -4023,13 +4077,13 @@
         <v>116369</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>175</v>
@@ -4038,13 +4092,13 @@
         <v>197697</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4113,13 @@
         <v>478309</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>586</v>
@@ -4074,13 +4128,13 @@
         <v>626606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>1023</v>
@@ -4089,13 +4143,13 @@
         <v>1104915</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4217,13 @@
         <v>250504</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>296</v>
@@ -4178,13 +4232,13 @@
         <v>323353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>523</v>
@@ -4193,13 +4247,13 @@
         <v>573858</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4268,13 @@
         <v>3176275</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H23" s="7">
         <v>3002</v>
@@ -4229,13 +4283,13 @@
         <v>3234956</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>5984</v>
@@ -4244,13 +4298,13 @@
         <v>6411230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4360,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4328,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CA65E1-BB98-42D0-9FD5-25EB1515EF22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E938DC-FFE8-40F4-8658-E20555A78FAC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4345,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4452,13 +4506,13 @@
         <v>12847</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4467,13 +4521,13 @@
         <v>8514</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4482,10 +4536,10 @@
         <v>21361</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>272</v>
@@ -4503,13 +4557,13 @@
         <v>406616</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>65</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>85</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>395</v>
@@ -4518,13 +4572,13 @@
         <v>387241</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>776</v>
@@ -4533,10 +4587,10 @@
         <v>793857</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>280</v>
@@ -4607,7 +4661,7 @@
         <v>18058</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>281</v>
@@ -4640,10 +4694,10 @@
         <v>286</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4712,13 @@
         <v>572438</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>273</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H8" s="7">
         <v>566</v>
@@ -4673,13 +4727,13 @@
         <v>550649</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M8" s="7">
         <v>1115</v>
@@ -4688,13 +4742,13 @@
         <v>1123087</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4816,13 @@
         <v>24053</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4777,13 +4831,13 @@
         <v>25543</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -4792,13 +4846,13 @@
         <v>49596</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4867,13 @@
         <v>645044</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H11" s="7">
         <v>638</v>
@@ -4828,13 +4882,13 @@
         <v>635843</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>1253</v>
@@ -4905,7 +4959,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4932,13 +4986,13 @@
         <v>44532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4947,7 +5001,7 @@
         <v>91264</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>318</v>
@@ -4983,13 +5037,13 @@
         <v>604545</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>323</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>324</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1101</v>
@@ -4998,7 +5052,7 @@
         <v>1203861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>325</v>
@@ -5060,7 +5114,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5075,10 +5129,10 @@
         <v>327</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>328</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -5087,13 +5141,13 @@
         <v>64677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -5102,13 +5156,13 @@
         <v>106716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5177,13 @@
         <v>435879</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>378</v>
@@ -5138,13 +5192,13 @@
         <v>432172</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M17" s="7">
         <v>765</v>
@@ -5153,13 +5207,13 @@
         <v>868051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,7 +5269,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5227,13 +5281,13 @@
         <v>44766</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -5242,13 +5296,13 @@
         <v>88552</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -5257,13 +5311,13 @@
         <v>133318</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5332,13 @@
         <v>546562</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>584</v>
@@ -5293,13 +5347,13 @@
         <v>689379</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>1163</v>
@@ -5308,13 +5362,13 @@
         <v>1235941</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5436,13 @@
         <v>188494</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="H22" s="7">
         <v>217</v>
@@ -5397,13 +5451,13 @@
         <v>244714</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>167</v>
+        <v>366</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="M22" s="7">
         <v>396</v>
@@ -5412,13 +5466,13 @@
         <v>433208</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5487,13 @@
         <v>3205856</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>372</v>
       </c>
       <c r="H23" s="7">
         <v>3121</v>
@@ -5448,13 +5502,13 @@
         <v>3299828</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
         <v>6173</v>
@@ -5463,13 +5517,13 @@
         <v>6505684</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,7 +5579,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5547,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D3B4D-F001-48BF-9602-8E715B9BADA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6A90A8-3971-4BF7-B2EB-0E5ACE1EF968}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5564,7 +5618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5671,13 +5725,13 @@
         <v>23638</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -5686,13 +5740,13 @@
         <v>23578</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -5701,13 +5755,13 @@
         <v>47216</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5776,13 @@
         <v>354041</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>191</v>
@@ -5737,13 +5791,13 @@
         <v>331379</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>352</v>
@@ -5752,13 +5806,13 @@
         <v>685420</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5880,13 @@
         <v>41750</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5841,13 +5895,13 @@
         <v>17490</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -5856,13 +5910,13 @@
         <v>59241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>388</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5931,13 @@
         <v>386646</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -5892,13 +5946,13 @@
         <v>481725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>410</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="M8" s="7">
         <v>720</v>
@@ -5907,13 +5961,13 @@
         <v>868370</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>397</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +6035,13 @@
         <v>19830</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -5996,13 +6050,13 @@
         <v>37821</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>417</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -6011,13 +6065,13 @@
         <v>57651</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>404</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6086,13 @@
         <v>537422</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="H11" s="7">
         <v>795</v>
@@ -6047,13 +6101,13 @@
         <v>572626</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>425</v>
       </c>
       <c r="M11" s="7">
         <v>1321</v>
@@ -6062,13 +6116,13 @@
         <v>1110048</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>410</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,7 +6178,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6136,13 +6190,13 @@
         <v>70191</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -6151,13 +6205,13 @@
         <v>69175</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -6166,13 +6220,13 @@
         <v>139365</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6241,13 @@
         <v>653799</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="H14" s="7">
         <v>1030</v>
@@ -6202,28 +6256,28 @@
         <v>678086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>1628</v>
       </c>
       <c r="N14" s="7">
-        <v>1331886</v>
+        <v>1331887</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,7 +6319,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6279,7 +6333,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6291,13 +6345,13 @@
         <v>97844</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -6306,13 +6360,13 @@
         <v>62967</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -6321,13 +6375,13 @@
         <v>160811</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6396,13 @@
         <v>502313</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>896</v>
@@ -6357,13 +6411,13 @@
         <v>534096</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>1454</v>
@@ -6372,13 +6426,13 @@
         <v>1036409</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,7 +6488,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6446,13 +6500,13 @@
         <v>133768</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="H19" s="7">
         <v>389</v>
@@ -6461,13 +6515,13 @@
         <v>322699</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="M19" s="7">
         <v>589</v>
@@ -6476,13 +6530,13 @@
         <v>456467</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,16 +6548,16 @@
         <v>828</v>
       </c>
       <c r="D20" s="7">
-        <v>563987</v>
+        <v>563986</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7">
         <v>1319</v>
@@ -6512,13 +6566,13 @@
         <v>703938</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="M20" s="7">
         <v>2147</v>
@@ -6527,13 +6581,13 @@
         <v>1267925</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,7 +6599,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6601,13 +6655,13 @@
         <v>387020</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="H22" s="7">
         <v>694</v>
@@ -6616,13 +6670,13 @@
         <v>533731</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="M22" s="7">
         <v>1121</v>
@@ -6631,13 +6685,13 @@
         <v>920751</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6706,13 @@
         <v>2998208</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="H23" s="7">
         <v>4673</v>
@@ -6667,28 +6721,28 @@
         <v>3301850</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
         <v>7622</v>
       </c>
       <c r="N23" s="7">
-        <v>6300057</v>
+        <v>6300058</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,7 +6784,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6744,7 +6798,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_fisi_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A37CC3F-C4F0-41A7-9866-67EFA2E863D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56FCC912-FCEC-463C-8033-C2F9E3A75EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{472049F6-CD51-4991-BF31-E4847CFC6C28}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1A910135-570C-47DE-88BD-AB828A23C19E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="561">
   <si>
     <t>Hogares según si tienen personas con limitación, discapacidad física en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -83,1456 +83,1645 @@
     <t>2,93%</t>
   </si>
   <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
     <t>3,17%</t>
   </si>
   <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
   </si>
   <si>
     <t>86,83%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
 </sst>
 </file>
@@ -1944,8 +2133,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF8149F-68EF-4A92-9FC8-FC27C69DAEB4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91084774-C8E3-4A98-8634-E468F9EC8B26}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2077,10 +2266,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>14799</v>
+        <v>15702</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2092,10 +2281,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>22482</v>
+        <v>23384</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2128,10 +2317,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I5" s="7">
-        <v>452690</v>
+        <v>451787</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2143,10 +2332,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="N5" s="7">
-        <v>939071</v>
+        <v>938169</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2232,34 +2421,34 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>14684</v>
+        <v>15637</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>32</v>
+      </c>
+      <c r="N7" s="7">
+        <v>32266</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7">
-        <v>31</v>
-      </c>
-      <c r="N7" s="7">
-        <v>31313</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,43 +2463,43 @@
         <v>718860</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>576</v>
+      </c>
+      <c r="I8" s="7">
+        <v>609857</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>577</v>
-      </c>
-      <c r="I8" s="7">
-        <v>610810</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1262</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1328716</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>1263</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1329669</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,7 +2555,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2378,13 +2567,13 @@
         <v>26764</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -2393,13 +2582,13 @@
         <v>32189</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -2408,13 +2597,13 @@
         <v>58953</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2618,13 @@
         <v>611904</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>629</v>
@@ -2444,13 +2633,13 @@
         <v>657555</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>1219</v>
@@ -2837,10 +3026,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>49636</v>
+        <v>25061</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2852,10 +3041,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I19" s="7">
-        <v>72524</v>
+        <v>30562</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2867,10 +3056,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="N19" s="7">
-        <v>122160</v>
+        <v>55623</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2888,10 +3077,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>470</v>
+        <v>277</v>
       </c>
       <c r="D20" s="7">
-        <v>452830</v>
+        <v>267522</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2903,10 +3092,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>591</v>
+        <v>338</v>
       </c>
       <c r="I20" s="7">
-        <v>604318</v>
+        <v>312372</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2918,10 +3107,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>1061</v>
+        <v>615</v>
       </c>
       <c r="N20" s="7">
-        <v>1057148</v>
+        <v>579894</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2939,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2954,10 +3143,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2969,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2986,55 +3175,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="D22" s="7">
-        <v>163611</v>
+        <v>24575</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="I22" s="7">
-        <v>209674</v>
+        <v>41961</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>360</v>
+        <v>64</v>
       </c>
       <c r="N22" s="7">
-        <v>373284</v>
+        <v>66536</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,49 +3232,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3052</v>
+        <v>193</v>
       </c>
       <c r="D23" s="7">
-        <v>3112933</v>
+        <v>185308</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>3099</v>
+        <v>253</v>
       </c>
       <c r="I23" s="7">
-        <v>3169524</v>
+        <v>291947</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>6151</v>
+        <v>446</v>
       </c>
       <c r="N23" s="7">
-        <v>6282456</v>
+        <v>477255</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,63 +3283,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>162</v>
+      </c>
+      <c r="D25" s="7">
+        <v>163611</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>200</v>
+      </c>
+      <c r="I25" s="7">
+        <v>211529</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>362</v>
+      </c>
+      <c r="N25" s="7">
+        <v>375140</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3052</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3112932</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3097</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3167668</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6149</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6280601</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3163,8 +3508,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A224FFBC-902F-47BC-A150-8AD47BDF3F58}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C2DD29-9844-4D24-9FD4-F6083B6173BC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3180,7 +3525,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,13 +3632,13 @@
         <v>11485</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -3302,13 +3647,13 @@
         <v>17935</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3317,13 +3662,13 @@
         <v>29420</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3683,13 @@
         <v>442661</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>403</v>
@@ -3353,13 +3698,13 @@
         <v>412295</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>838</v>
@@ -3368,13 +3713,13 @@
         <v>854956</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3787,13 @@
         <v>34100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3457,13 +3802,13 @@
         <v>24435</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -3472,13 +3817,13 @@
         <v>58535</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3838,13 @@
         <v>652987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>549</v>
@@ -3508,13 +3853,13 @@
         <v>585820</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>1183</v>
@@ -3523,13 +3868,13 @@
         <v>1238807</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,7 +3930,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3597,13 +3942,13 @@
         <v>36609</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3612,13 +3957,13 @@
         <v>52499</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -3627,13 +3972,13 @@
         <v>89108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3993,13 @@
         <v>645254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -3663,13 +4008,13 @@
         <v>658351</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>1235</v>
@@ -3678,13 +4023,13 @@
         <v>1303604</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +4097,13 @@
         <v>40021</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -3767,13 +4112,13 @@
         <v>60475</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>89</v>
@@ -3782,13 +4127,13 @@
         <v>100495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +4148,13 @@
         <v>574596</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>487</v>
@@ -3818,13 +4163,13 @@
         <v>555724</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>998</v>
@@ -3833,13 +4178,13 @@
         <v>1130321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +4252,13 @@
         <v>46962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -3922,13 +4267,13 @@
         <v>51641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -3937,13 +4282,13 @@
         <v>98603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +4303,13 @@
         <v>382467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>359</v>
@@ -3973,13 +4318,13 @@
         <v>396159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>707</v>
@@ -3988,13 +4333,13 @@
         <v>778626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +4401,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>81328</v>
+        <v>42284</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>116369</v>
+        <v>40534</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="N19" s="7">
-        <v>197697</v>
+        <v>82818</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,49 +4452,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>437</v>
+        <v>246</v>
       </c>
       <c r="D20" s="7">
-        <v>478309</v>
+        <v>267502</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
-        <v>586</v>
+        <v>305</v>
       </c>
       <c r="I20" s="7">
-        <v>626606</v>
+        <v>313462</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
-        <v>1023</v>
+        <v>551</v>
       </c>
       <c r="N20" s="7">
-        <v>1104915</v>
+        <v>580964</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,10 +4503,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4173,10 +4518,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4188,10 +4533,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4205,55 +4550,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>250504</v>
+        <v>39044</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>296</v>
+        <v>69</v>
       </c>
       <c r="I22" s="7">
-        <v>323353</v>
+        <v>75835</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>87</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
-        <v>523</v>
+        <v>100</v>
       </c>
       <c r="N22" s="7">
-        <v>573858</v>
+        <v>114879</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,49 +4607,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2982</v>
+        <v>191</v>
       </c>
       <c r="D23" s="7">
-        <v>3176275</v>
+        <v>210807</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
-        <v>3002</v>
+        <v>281</v>
       </c>
       <c r="I23" s="7">
-        <v>3234956</v>
+        <v>313144</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>96</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
-        <v>5984</v>
+        <v>472</v>
       </c>
       <c r="N23" s="7">
-        <v>6411230</v>
+        <v>523951</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,63 +4658,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>227</v>
+      </c>
+      <c r="D25" s="7">
+        <v>250504</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="7">
+        <v>296</v>
+      </c>
+      <c r="I25" s="7">
+        <v>323353</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M25" s="7">
+        <v>523</v>
+      </c>
+      <c r="N25" s="7">
+        <v>573858</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2982</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3176275</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3002</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3234956</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5984</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6411230</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4382,8 +4883,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E938DC-FFE8-40F4-8658-E20555A78FAC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5CF2B0-0071-41F1-ABAD-04766912C09B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4399,7 +4900,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,10 +5007,10 @@
         <v>12847</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>75</v>
@@ -4521,13 +5022,13 @@
         <v>8514</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4536,13 +5037,13 @@
         <v>21361</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +5058,13 @@
         <v>406616</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>395</v>
@@ -4572,13 +5073,13 @@
         <v>387241</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>776</v>
@@ -4587,13 +5088,13 @@
         <v>793857</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +5162,13 @@
         <v>18058</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -4676,13 +5177,13 @@
         <v>12895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -4691,13 +5192,13 @@
         <v>30953</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +5213,13 @@
         <v>572438</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="H8" s="7">
         <v>566</v>
@@ -4727,13 +5228,13 @@
         <v>550649</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="M8" s="7">
         <v>1115</v>
@@ -4742,13 +5243,13 @@
         <v>1123087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,7 +5305,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4816,13 +5317,13 @@
         <v>24053</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4831,13 +5332,13 @@
         <v>25543</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -4846,13 +5347,13 @@
         <v>49596</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +5368,13 @@
         <v>645044</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>638</v>
@@ -4882,13 +5383,13 @@
         <v>635843</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>1253</v>
@@ -4897,13 +5398,13 @@
         <v>1280887</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +5472,13 @@
         <v>46732</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4989,10 +5490,10 @@
         <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -5001,13 +5502,13 @@
         <v>91264</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5523,13 @@
         <v>599316</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>560</v>
@@ -5040,10 +5541,10 @@
         <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>1101</v>
@@ -5052,13 +5553,13 @@
         <v>1203861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5627,13 @@
         <v>42039</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -5141,13 +5642,13 @@
         <v>64677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -5156,13 +5657,13 @@
         <v>106716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5678,13 @@
         <v>435879</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>378</v>
@@ -5192,13 +5693,13 @@
         <v>432172</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>765</v>
@@ -5207,13 +5708,13 @@
         <v>868051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,49 +5776,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>44766</v>
+        <v>25752</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I19" s="7">
-        <v>88552</v>
+        <v>31982</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>349</v>
+        <v>188</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="N19" s="7">
-        <v>133318</v>
+        <v>57734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,49 +5827,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>579</v>
+        <v>299</v>
       </c>
       <c r="D20" s="7">
-        <v>546562</v>
+        <v>308578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
-        <v>584</v>
+        <v>324</v>
       </c>
       <c r="I20" s="7">
-        <v>689379</v>
+        <v>345780</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>195</v>
       </c>
       <c r="M20" s="7">
-        <v>1163</v>
+        <v>623</v>
       </c>
       <c r="N20" s="7">
-        <v>1235941</v>
+        <v>654358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,10 +5878,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5392,10 +5893,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5407,10 +5908,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5424,55 +5925,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>188494</v>
+        <v>19014</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>183</v>
+        <v>384</v>
       </c>
       <c r="H22" s="7">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="I22" s="7">
-        <v>244714</v>
+        <v>56570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7">
-        <v>396</v>
+        <v>63</v>
       </c>
       <c r="N22" s="7">
-        <v>433208</v>
+        <v>75584</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,49 +5982,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3052</v>
+        <v>280</v>
       </c>
       <c r="D23" s="7">
-        <v>3205856</v>
+        <v>237984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>191</v>
+        <v>391</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="H23" s="7">
-        <v>3121</v>
+        <v>260</v>
       </c>
       <c r="I23" s="7">
-        <v>3299828</v>
+        <v>343599</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="M23" s="7">
-        <v>6173</v>
+        <v>540</v>
       </c>
       <c r="N23" s="7">
-        <v>6505684</v>
+        <v>581583</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,63 +6033,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>179</v>
+      </c>
+      <c r="D25" s="7">
+        <v>188494</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="7">
+        <v>217</v>
+      </c>
+      <c r="I25" s="7">
+        <v>244714</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="M25" s="7">
+        <v>396</v>
+      </c>
+      <c r="N25" s="7">
+        <v>433208</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3052</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3205856</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3121</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3299828</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6173</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6505684</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5601,8 +6258,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6A90A8-3971-4BF7-B2EB-0E5ACE1EF968}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855B5EA-03A1-4C9E-982E-66477CE98269}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5618,7 +6275,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5719,49 +6376,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>23638</v>
+        <v>19158</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>23578</v>
+        <v>21093</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>384</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="M4" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>47216</v>
+        <v>40251</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>386</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,49 +6427,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D5" s="7">
-        <v>354041</v>
+        <v>380829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I5" s="7">
-        <v>331379</v>
+        <v>292107</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N5" s="7">
-        <v>685420</v>
+        <v>672936</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,7 +6481,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5839,7 +6496,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5854,7 +6511,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5874,49 +6531,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>41750</v>
+        <v>40804</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>17490</v>
+        <v>15461</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="M7" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" s="7">
-        <v>59241</v>
+        <v>56266</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>448</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,49 +6582,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D8" s="7">
-        <v>386646</v>
+        <v>382743</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
       </c>
       <c r="I8" s="7">
-        <v>481725</v>
+        <v>496632</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="M8" s="7">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N8" s="7">
-        <v>868370</v>
+        <v>879374</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,7 +6636,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5994,7 +6651,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6009,7 +6666,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6023,7 +6680,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6032,46 +6689,46 @@
         <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>19830</v>
+        <v>19471</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>37821</v>
+        <v>31741</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>460</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="M10" s="7">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N10" s="7">
-        <v>57651</v>
+        <v>51212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,46 +6740,46 @@
         <v>526</v>
       </c>
       <c r="D11" s="7">
-        <v>537422</v>
+        <v>516867</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="H11" s="7">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="I11" s="7">
-        <v>572626</v>
+        <v>560261</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>469</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="M11" s="7">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="N11" s="7">
-        <v>1110048</v>
+        <v>1077128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>473</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,7 +6791,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6149,7 +6806,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6164,7 +6821,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6187,46 +6844,46 @@
         <v>67</v>
       </c>
       <c r="D13" s="7">
-        <v>70191</v>
+        <v>66671</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>429</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="H13" s="7">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I13" s="7">
-        <v>69175</v>
+        <v>62903</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>479</v>
       </c>
       <c r="M13" s="7">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N13" s="7">
-        <v>139365</v>
+        <v>129574</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,46 +6895,46 @@
         <v>598</v>
       </c>
       <c r="D14" s="7">
-        <v>653799</v>
+        <v>821115</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="I14" s="7">
-        <v>678086</v>
+        <v>649978</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="M14" s="7">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="N14" s="7">
-        <v>1331887</v>
+        <v>1471093</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,7 +6946,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6304,7 +6961,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6319,7 +6976,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6339,49 +6996,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>103</v>
+      </c>
+      <c r="D16" s="7">
+        <v>90296</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H16" s="7">
         <v>105</v>
       </c>
-      <c r="D16" s="7">
-        <v>97844</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="H16" s="7">
-        <v>106</v>
-      </c>
       <c r="I16" s="7">
-        <v>62967</v>
+        <v>57195</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="M16" s="7">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N16" s="7">
-        <v>160811</v>
+        <v>147490</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,49 +7047,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D17" s="7">
-        <v>502313</v>
+        <v>470938</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="H17" s="7">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="I17" s="7">
-        <v>534096</v>
+        <v>490710</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>457</v>
+        <v>503</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="M17" s="7">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="N17" s="7">
-        <v>1036409</v>
+        <v>961649</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>460</v>
+        <v>506</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,7 +7101,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6459,7 +7116,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6474,7 +7131,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6494,49 +7151,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="D19" s="7">
-        <v>133768</v>
+        <v>49718</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="H19" s="7">
-        <v>389</v>
+        <v>118</v>
       </c>
       <c r="I19" s="7">
-        <v>322699</v>
+        <v>262876</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>466</v>
+        <v>511</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>467</v>
+        <v>512</v>
       </c>
       <c r="M19" s="7">
-        <v>589</v>
+        <v>194</v>
       </c>
       <c r="N19" s="7">
-        <v>456467</v>
+        <v>312594</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>468</v>
+        <v>513</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>469</v>
+        <v>514</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>470</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,49 +7202,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>828</v>
+        <v>494</v>
       </c>
       <c r="D20" s="7">
-        <v>563986</v>
+        <v>318447</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>472</v>
+        <v>517</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="H20" s="7">
-        <v>1319</v>
+        <v>709</v>
       </c>
       <c r="I20" s="7">
-        <v>703938</v>
+        <v>345492</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>519</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>475</v>
+        <v>520</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="M20" s="7">
-        <v>2147</v>
+        <v>1203</v>
       </c>
       <c r="N20" s="7">
-        <v>1267925</v>
+        <v>663939</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>478</v>
+        <v>523</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,10 +7253,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6611,10 +7268,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6626,10 +7283,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6643,55 +7300,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>427</v>
+        <v>124</v>
       </c>
       <c r="D22" s="7">
-        <v>387020</v>
+        <v>75873</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>482</v>
+        <v>527</v>
       </c>
       <c r="H22" s="7">
-        <v>694</v>
+        <v>270</v>
       </c>
       <c r="I22" s="7">
-        <v>533731</v>
+        <v>132840</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>483</v>
+        <v>528</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="M22" s="7">
-        <v>1121</v>
+        <v>394</v>
       </c>
       <c r="N22" s="7">
-        <v>920751</v>
+        <v>208713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,49 +7357,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2949</v>
+        <v>334</v>
       </c>
       <c r="D23" s="7">
-        <v>2998208</v>
+        <v>206886</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="H23" s="7">
-        <v>4673</v>
+        <v>611</v>
       </c>
       <c r="I23" s="7">
-        <v>3301850</v>
+        <v>292991</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="M23" s="7">
-        <v>7622</v>
+        <v>945</v>
       </c>
       <c r="N23" s="7">
-        <v>6300058</v>
+        <v>499877</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,63 +7408,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>422</v>
+      </c>
+      <c r="D25" s="7">
+        <v>361991</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="H25" s="7">
+        <v>684</v>
+      </c>
+      <c r="I25" s="7">
+        <v>584109</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1106</v>
+      </c>
+      <c r="N25" s="7">
+        <v>946100</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2954</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3097826</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4683</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3128171</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7637</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6225997</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
